--- a/www/ig/fhir/annuaire/1.1.0-snapshot/CodeSystem-as-cs-organization-types.xlsx
+++ b/www/ig/fhir/annuaire/1.1.0-snapshot/CodeSystem-as-cs-organization-types.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="53">
   <si>
     <t>Property</t>
   </si>
@@ -30,13 +30,13 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0-snapshot</t>
+    <t>1.1.0-snapshot-2</t>
   </si>
   <si>
     <t>Name</t>
   </si>
   <si>
-    <t>AsCsorganizationTypes</t>
+    <t>AsCsOrganizationTypes</t>
   </si>
   <si>
     <t>Title</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-10T13:17:34+00:00</t>
+    <t>2024-07-11T15:51:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -117,7 +117,7 @@
     <t>Count</t>
   </si>
   <si>
-    <t>5</t>
+    <t>6</t>
   </si>
   <si>
     <t>Level</t>
@@ -133,6 +133,12 @@
   </si>
   <si>
     <t>1</t>
+  </si>
+  <si>
+    <t>organizationType</t>
+  </si>
+  <si>
+    <t>Type d'organisation</t>
   </si>
   <si>
     <t>activiteINSEE</t>
@@ -474,7 +480,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -533,7 +539,7 @@
         <v>45</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5">
@@ -541,10 +547,10 @@
         <v>39</v>
       </c>
       <c r="B5" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="C5" t="s" s="2">
         <v>47</v>
-      </c>
-      <c r="C5" t="s" s="2">
-        <v>48</v>
       </c>
       <c r="D5" t="s" s="2">
         <v>48</v>
@@ -562,6 +568,20 @@
       </c>
       <c r="D6" t="s" s="2">
         <v>50</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="C7" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="D7" t="s" s="2">
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/www/ig/fhir/annuaire/1.1.0-snapshot/CodeSystem-as-cs-organization-types.xlsx
+++ b/www/ig/fhir/annuaire/1.1.0-snapshot/CodeSystem-as-cs-organization-types.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="51">
   <si>
     <t>Property</t>
   </si>
@@ -30,13 +30,13 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0-snapshot-2</t>
+    <t>1.1.0-snapshot</t>
   </si>
   <si>
     <t>Name</t>
   </si>
   <si>
-    <t>AsCsOrganizationTypes</t>
+    <t>AsCsorganizationTypes</t>
   </si>
   <si>
     <t>Title</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-11T15:51:10+00:00</t>
+    <t>2024-07-10T13:17:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -117,7 +117,7 @@
     <t>Count</t>
   </si>
   <si>
-    <t>6</t>
+    <t>5</t>
   </si>
   <si>
     <t>Level</t>
@@ -133,12 +133,6 @@
   </si>
   <si>
     <t>1</t>
-  </si>
-  <si>
-    <t>organizationType</t>
-  </si>
-  <si>
-    <t>Type d'organisation</t>
   </si>
   <si>
     <t>activiteINSEE</t>
@@ -480,7 +474,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -539,7 +533,7 @@
         <v>45</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5">
@@ -547,10 +541,10 @@
         <v>39</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D5" t="s" s="2">
         <v>48</v>
@@ -568,20 +562,6 @@
       </c>
       <c r="D6" t="s" s="2">
         <v>50</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="B7" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="C7" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="D7" t="s" s="2">
-        <v>52</v>
       </c>
     </row>
   </sheetData>
